--- a/questions/ServerCommandTableA8.xlsx
+++ b/questions/ServerCommandTableA8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>LCD display shows "Bonding Failed"</t>
+  </si>
+  <si>
+    <t>User confirms through Push Button</t>
   </si>
 </sst>
 </file>
@@ -1856,8 +1859,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="13.5" customHeight="1"/>
@@ -2520,7 +2523,9 @@
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="22"/>
-      <c r="F61" s="16"/>
+      <c r="F61" s="16" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="13.5" customHeight="1">
       <c r="A62" s="4"/>

--- a/questions/ServerCommandTableA8.xlsx
+++ b/questions/ServerCommandTableA8.xlsx
@@ -1859,8 +1859,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="13.5" customHeight="1"/>
